--- a/doc/API_information.xlsx
+++ b/doc/API_information.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="15">
   <si>
     <t>Category API</t>
   </si>
@@ -38,7 +38,7 @@
     <t>X</t>
   </si>
   <si>
-    <t>Schedule </t>
+    <t>Schedule</t>
   </si>
   <si>
     <t>TaskList</t>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Category</t>
+  </si>
+  <si>
+    <t>Reminder</t>
   </si>
   <si>
     <t>Schedule API</t>
@@ -69,6 +72,7 @@
   <fonts count="4">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -142,7 +146,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -151,7 +155,7 @@
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -164,6 +168,10 @@
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -244,10 +252,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100">
-      <selection activeCell="H12" activeCellId="0" pane="topLeft" sqref="H12"/>
+      <selection activeCell="F18" activeCellId="0" pane="topLeft" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.1"/>
@@ -354,9 +362,14 @@
         <v>6</v>
       </c>
     </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+      <c r="A8" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -453,9 +466,14 @@
         <v>6</v>
       </c>
     </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+      <c r="A16" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -552,9 +570,14 @@
         <v>6</v>
       </c>
     </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
+      <c r="A24" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
       <c r="A25" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -634,6 +657,25 @@
         <v>6</v>
       </c>
       <c r="E31" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
+      <c r="A32" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
+      <c r="A33" s="3"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
+      <c r="A34" s="3"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
